--- a/src/main/resources/public/demo.xlsx
+++ b/src/main/resources/public/demo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5086D807-A877-401A-8D9D-4FC3E745856A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="4020" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E48BD3F8-F4C4-4D75-98F3-E5AEFE679C39}">
       <text>
         <r>
           <rPr>
@@ -34,11 +35,63 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>此部分可为空</t>
+          <t>必须是完整的省/直辖市名字！</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{55C184B1-A7D2-40DF-90C5-2B107E7C55F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须是完整的市/区名字！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>此部分可为空</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{066CC590-F4BC-4B81-84DD-DFF0E3AFDD78}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须是已有的疫情事件ID,否则可能会导致信息导入失败！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -50,6 +103,20 @@
           </rPr>
           <t xml:space="preserve">只能为可选项中的一种，否则患者数据不载入统计！
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5051CC32-1868-4DDD-8A9D-5884974D11A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>请确定该患者之前未被录入信息！</t>
         </r>
       </text>
     </comment>
@@ -90,8 +157,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +175,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
@@ -418,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,7 +540,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"治愈,轻微,危重,死亡"</formula1>
     </dataValidation>
   </dataValidations>
